--- a/test/data/5-0ResModel-Calibrate.xlsx
+++ b/test/data/5-0ResModel-Calibrate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gitlocal\Filter\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6937E42-86C4-48E7-8870-D3A6B30BE28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDB5BE5-E80C-4F17-A81D-812C146473CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -1034,7 +1034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -10470,7 +10470,7 @@
   <dimension ref="A1:I367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20349,10 +20349,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D57FAA-5473-49E6-98C4-14B2E7E05E34}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20362,14 +20362,14 @@
     <col min="3" max="3" width="6.73046875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
         <v>105</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>106</v>
       </c>
@@ -20380,7 +20380,7 @@
         <v>133.19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>108</v>
       </c>
@@ -20388,10 +20388,10 @@
         <v>109</v>
       </c>
       <c r="C3" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>9.2499999999999995E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>110</v>
       </c>
@@ -20399,10 +20399,10 @@
         <v>111</v>
       </c>
       <c r="C4" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>9.2499999999999995E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
         <v>112</v>
       </c>
@@ -20410,10 +20410,10 @@
         <v>113</v>
       </c>
       <c r="C5" s="4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1.8499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
         <v>114</v>
       </c>
@@ -20421,10 +20421,10 @@
         <v>115</v>
       </c>
       <c r="C6" s="4">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.15966666666666671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>116</v>
       </c>
@@ -20432,10 +20432,10 @@
         <v>117</v>
       </c>
       <c r="C7" s="4">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
         <v>118</v>
       </c>
@@ -20443,10 +20443,18 @@
         <v>119</v>
       </c>
       <c r="C8" s="4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>1.466666666666667</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="11" t="s">
         <v>120</v>
       </c>
@@ -20454,10 +20462,10 @@
         <v>121</v>
       </c>
       <c r="C9" s="13">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/test/data/5-0ResModel-Calibrate.xlsx
+++ b/test/data/5-0ResModel-Calibrate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gitlocal\Filter\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDB5BE5-E80C-4F17-A81D-812C146473CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FA100E-D48A-4A75-A07B-5CC739A17D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -10469,14 +10469,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4981986C-24D0-47F2-AFB6-9E2CB8204399}">
   <dimension ref="A1:I367"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.19921875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="2" max="7" width="9.06640625" style="1"/>
+    <col min="8" max="9" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
@@ -10514,15 +10516,6 @@
       </c>
       <c r="B2" s="1">
         <v>133.19</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3.6999999999999922E-2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.15966666666666671</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.68</v>
       </c>
       <c r="F2" s="1">
         <v>8.3333333333333339</v>
@@ -20351,8 +20344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D57FAA-5473-49E6-98C4-14B2E7E05E34}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20388,7 +20381,7 @@
         <v>109</v>
       </c>
       <c r="C3" s="4">
-        <v>9.2499999999999995E-3</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -20399,8 +20392,11 @@
         <v>111</v>
       </c>
       <c r="C4" s="4">
-        <v>9.2499999999999995E-3</v>
-      </c>
+        <v>1.4E-2</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
@@ -20410,7 +20406,7 @@
         <v>113</v>
       </c>
       <c r="C5" s="4">
-        <v>1.8499999999999999E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
@@ -20421,7 +20417,7 @@
         <v>115</v>
       </c>
       <c r="C6" s="4">
-        <v>0.15966666666666671</v>
+        <v>0.14933299999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
@@ -20432,7 +20428,7 @@
         <v>117</v>
       </c>
       <c r="C7" s="4">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
